--- a/testdata/clientTestData/AllianceLaundrySystems_01012021_Primary_10072021_{Automation}_{REGISTERED}.xlsx
+++ b/testdata/clientTestData/AllianceLaundrySystems_01012021_Primary_10072021_{Automation}_{REGISTERED}.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaxmira/Desktop/01012021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaxmira/Desktop/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E331E6-58EC-E849-B34B-A19C87CA9011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4B398-E152-B94F-B33A-C58EDA8C62E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>PREM_UHC_ALLIANCELA_UPRFLEXOU_EE_SP_EREPR</t>
   </si>
   <si>
-    <t>2021.01.01_Alliance_Aff2_EREPR</t>
-  </si>
-  <si>
     <t>uat_uCqMgEUu@rally.mailinator.com</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Alliance</t>
+  </si>
+  <si>
+    <t>2022.01.01_Alliance_Aff2_EREPR</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -681,19 +681,19 @@
         <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
